--- a/Expression_by_Mem_Fluo.xlsx
+++ b/Expression_by_Mem_Fluo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Peter\Backup Papers\EAAT2 variants\data repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Peter\Backup Papers\EAAT2 variants\data repository\Formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D69F7A3-F07D-4416-ABC0-8C4B256DC069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3A7697-ADB8-440E-BAF9-F4B01304DB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D99A0D77-E2C7-4AC4-8A3A-6B6955A0D9C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{D99A0D77-E2C7-4AC4-8A3A-6B6955A0D9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="WT hEAAT2" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,13 +528,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -635,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,21 +682,29 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -992,22 +1021,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50167435-1C49-485B-916E-72F9B8AFCBB4}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="17" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1034,1325 +1071,1325 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>46.7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>74.2</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <f>AVERAGE(B3:B4)</f>
         <v>60.45</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <f>STDEV(B3:B4)</f>
         <v>19.445436482630058</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>6.57</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <v>3.9</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <f>C4+E4</f>
         <v>67.02000000000001</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="9">
         <f>D4</f>
         <v>19.445436482630058</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <f>F4</f>
         <v>3.9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>99.3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>46.5</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <f>AVERAGE(B5:B6)</f>
         <v>72.900000000000006</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <f>STDEV(B5:B6)</f>
         <v>37.335238046649685</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>8.84</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>9.4600000000000009</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <f>C6+E6</f>
         <v>81.740000000000009</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <f>D6</f>
         <v>37.335238046649685</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <f>F6</f>
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>69.38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>95.7</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <f>AVERAGE(B7:B8)</f>
         <v>82.539999999999992</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <f>STDEV(B7:B8)</f>
         <v>18.61105048082997</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>2.86</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>1.53</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <f>C8+E8</f>
         <v>85.399999999999991</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
         <f>D8</f>
         <v>18.61105048082997</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="9">
         <f>F8</f>
         <v>1.53</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>57</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <f>AVERAGE(B9:B10)</f>
         <v>54</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <f>STDEV(B9:B10)</f>
         <v>4.2426406871192848</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>18.260000000000002</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="9">
         <v>16.600000000000001</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="9">
         <f>C10+E10</f>
         <v>72.260000000000005</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <f>D10</f>
         <v>4.2426406871192848</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="9">
         <f>F10</f>
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>77</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <f>AVERAGE(B11:B12)</f>
         <v>64</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <f>STDEV(B11:B12)</f>
         <v>18.384776310850235</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>7.73</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <v>7.24</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="9">
         <f>C12+E12</f>
         <v>71.73</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="9">
         <f>D12</f>
         <v>18.384776310850235</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="9">
         <f>F12</f>
         <v>7.24</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>43</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <f>AVERAGE(B13:B14)</f>
         <v>56.5</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="9">
         <f>STDEV(B13:B14)</f>
         <v>19.091883092036785</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>14.4</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="9">
         <v>11.1</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="9">
         <f>C14+E14</f>
         <v>70.900000000000006</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="9">
         <f>D14</f>
         <v>19.091883092036785</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="9">
         <f>F14</f>
         <v>11.1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="9">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>33</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="9">
         <f>AVERAGE(B15:B16)</f>
         <v>44</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <f>STDEV(B15:B16)</f>
         <v>15.556349186104045</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <v>3.93</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="9">
         <v>2.83</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="9">
         <f>C16+E16</f>
         <v>47.93</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="9">
         <f>D16</f>
         <v>15.556349186104045</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="9">
         <f>F16</f>
         <v>2.83</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="9">
         <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <v>132</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="9">
         <v>131.5</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <v>0.5</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>5.86</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="9">
         <v>3.25</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="9">
         <f>C18+E18</f>
         <v>137.36000000000001</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="9">
         <f>D18</f>
         <v>0.5</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="9">
         <f>F18</f>
         <v>3.25</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="9">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>147</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <f>AVERAGE(B19:B20)</f>
         <v>129.5</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="9">
         <f>STDEV(B19:B20)</f>
         <v>24.748737341529164</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="9">
         <v>11.05</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="9">
         <v>10.3</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="9">
         <f>C20+E20</f>
         <v>140.55000000000001</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="9">
         <f>D20</f>
         <v>24.748737341529164</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="9">
         <f>F20</f>
         <v>10.3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="9">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>67</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="9">
         <f>AVERAGE(B21:B22)</f>
         <v>65</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="9">
         <f>STDEV(B21:B22)</f>
         <v>2.8284271247461903</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="9">
         <v>13.4</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="9">
         <v>10.4</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="9">
         <f>C22+E22</f>
         <v>78.400000000000006</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="9">
         <f>D22</f>
         <v>2.8284271247461903</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="9">
         <f>F22</f>
         <v>10.4</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <v>37</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="9">
         <f>AVERAGE(B23:B24)</f>
         <v>50.5</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="9">
         <f>STDEV(B23:B24)</f>
         <v>19.091883092036785</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="9">
         <v>7.6</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="9">
         <v>6.4</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="9">
         <f>C24+E24</f>
         <v>58.1</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="9">
         <f>D24</f>
         <v>19.091883092036785</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="9">
         <f>F24</f>
         <v>6.4</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>46</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="9">
         <f>AVERAGE(B25:B26)</f>
         <v>43.5</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="9">
         <f>STDEV(B25:B26)</f>
         <v>3.5355339059327378</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="9">
         <v>3.9</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="9">
         <v>2.5</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="9">
         <f>C26+E26</f>
         <v>47.4</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="9">
         <f>D26</f>
         <v>3.5355339059327378</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="9">
         <f>F26</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <v>45</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="9">
         <f>AVERAGE(B27:B28)</f>
         <v>54.5</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="9">
         <f>STDEV(B27:B28)</f>
         <v>13.435028842544403</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="9">
         <v>0.7</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="9">
         <v>0.98</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="9">
         <f>C28+E28</f>
         <v>55.2</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="9">
         <f>D28</f>
         <v>13.435028842544403</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="9">
         <f>F28</f>
         <v>0.98</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
+      <c r="B30" s="9">
         <v>18</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="9">
         <f>AVERAGE(B29:B30)</f>
         <v>19.5</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="9">
         <f>STDEV(B29:B30)</f>
         <v>2.1213203435596424</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="9">
         <v>0.25</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="9">
         <v>0.46</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="9">
         <f>C30+E30</f>
         <v>19.75</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="9">
         <f>D30</f>
         <v>2.1213203435596424</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="9">
         <f>F30</f>
         <v>0.46</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="12">
+      <c r="B32" s="9">
         <v>51</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="9">
         <f>AVERAGE(B31:B32)</f>
         <v>38</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="9">
         <f>STDEV(B31:B32)</f>
         <v>18.384776310850235</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="9">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="9">
         <v>2.9</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="9">
         <f>C32+E32</f>
         <v>46.7</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="9">
         <f>D32</f>
         <v>18.384776310850235</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="9">
         <f>F32</f>
         <v>2.9</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="9">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <v>104</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>AVERAGE(B33:B34)</f>
         <v>69.5</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>STDEV(B33:B34)</f>
         <v>48.790367901871782</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <v>4.5</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>C34+E34</f>
         <v>77.7</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="9">
         <f>D34</f>
         <v>48.790367901871782</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="9">
         <f>F34</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="9">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
+      <c r="B36" s="9">
         <v>155</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="9">
         <f>AVERAGE(B35:B36)</f>
         <v>121.5</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="9">
         <f>STDEV(B35:B36)</f>
         <v>47.376154339498683</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="9">
         <v>11.82</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="9">
         <v>4.72</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="9">
         <f>C36+E36</f>
         <v>133.32</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="9">
         <f>D36</f>
         <v>47.376154339498683</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="9">
         <f>F36</f>
         <v>4.72</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="9">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="12">
+      <c r="B38" s="9">
         <v>90</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="9">
         <f>AVERAGE(B37:B38)</f>
         <v>68.5</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="9">
         <f>STDEV(B37:B38)</f>
         <v>30.405591591021544</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="9">
         <v>20.94</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="9">
         <v>14.28</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="9">
         <f>C38+E38</f>
         <v>89.44</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="9">
         <f>D38</f>
         <v>30.405591591021544</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="9">
         <f>F38</f>
         <v>14.28</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="9">
         <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
+      <c r="B40" s="9">
         <v>33</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="9">
         <f>AVERAGE(B39:B40)</f>
         <v>64</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="9">
         <f>STDEV(B39:B40)</f>
         <v>43.840620433565945</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="9">
         <v>1.39</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="9">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="9">
         <f>C40+E40</f>
         <v>65.39</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="9">
         <f>D40</f>
         <v>43.840620433565945</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="9">
         <f>F40</f>
         <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="9">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="12">
+      <c r="B42" s="9">
         <v>116</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="9">
         <f>AVERAGE(B41:B42)</f>
         <v>75.5</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="9">
         <f>STDEV(B41:B42)</f>
         <v>57.27564927611035</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="9">
         <v>7.94</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="9">
         <v>7.75</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="9">
         <f>C42+E42</f>
         <v>83.44</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="9">
         <f>D42</f>
         <v>57.27564927611035</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="9">
         <f>F42</f>
         <v>7.75</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
+      <c r="B44" s="9">
         <v>12</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="9">
         <f>AVERAGE(B43:B44)</f>
         <v>16</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="9">
         <f>STDEV(B43:B44)</f>
         <v>5.6568542494923806</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="9">
         <v>1.62</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="9">
         <f>C44+E44</f>
         <v>17.14</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="9">
         <f>D44</f>
         <v>5.6568542494923806</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="9">
         <f>F44</f>
         <v>1.62</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
+      <c r="B46" s="9">
         <v>23</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="9">
         <f>AVERAGE(B45:B46)</f>
         <v>21</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="9">
         <f>STDEV(B45:B46)</f>
         <v>2.8284271247461903</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="9">
         <v>0.79</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="9">
         <v>1.24</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="9">
         <f>C46+E46</f>
         <v>21.79</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="9">
         <f>D46</f>
         <v>2.8284271247461903</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="9">
         <f>F46</f>
         <v>1.24</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="9">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="12">
+      <c r="B48" s="9">
         <v>38</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="9">
         <f>AVERAGE(B47:B48)</f>
         <v>42</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="9">
         <f>STDEV(B47:B48)</f>
         <v>5.6568542494923806</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="9">
         <v>8.4</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="9">
         <v>6.8</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="9">
         <f>C48+E48</f>
         <v>50.4</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="9">
         <f>D48</f>
         <v>5.6568542494923806</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="9">
         <f>F48</f>
         <v>6.8</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="9">
         <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
+      <c r="B50" s="9">
         <v>18</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="9">
         <f>AVERAGE(B49:B50)</f>
         <v>25</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="9">
         <f>STDEV(B49:B50)</f>
         <v>9.8994949366116654</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="9">
         <v>2.6</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="9">
         <v>2.8</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="9">
         <f>C50+E50</f>
         <v>27.6</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="9">
         <f>D50</f>
         <v>9.8994949366116654</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="9">
         <f>F50</f>
         <v>2.8</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="9">
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="12">
+      <c r="B52" s="9">
         <v>21</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="9">
         <f>AVERAGE(B51:B52)</f>
         <v>44.5</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="9">
         <f>STDEV(B51:B52)</f>
         <v>33.234018715767732</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="9">
         <v>0.77</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="9">
         <v>1.1299999999999999</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="9">
         <f>C52+E52</f>
         <v>45.27</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="9">
         <f>D52</f>
         <v>33.234018715767732</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="9">
         <f>F52</f>
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
+      <c r="B54" s="9">
         <v>25</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="9">
         <f>AVERAGE(B53:B54)</f>
         <v>22.5</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="9">
         <f>STDEV(B53:B54)</f>
         <v>3.5355339059327378</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="9">
         <v>1.94</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="9">
         <v>1.32</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="9">
         <f>C54+E54</f>
         <v>24.44</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="9">
         <f>D54</f>
         <v>3.5355339059327378</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="9">
         <f>F54</f>
         <v>1.32</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="9">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="12">
+      <c r="B56" s="9">
         <v>4</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="9">
         <f>AVERAGE(B55:B56)</f>
         <v>7.5</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="9">
         <f>STDEV(B55:B56)</f>
         <v>4.9497474683058327</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="9">
         <v>0.68</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="9">
         <f>C56+E56</f>
         <v>8.07</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="9">
         <f>D56</f>
         <v>4.9497474683058327</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="9">
         <f>F56</f>
         <v>0.68</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="9">
         <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="12">
+      <c r="B58" s="9">
         <v>18</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="9">
         <f>AVERAGE(B57:B58)</f>
         <v>15.5</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="9">
         <f>STDEV(B57:B58)</f>
         <v>3.5355339059327378</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="9">
         <v>0.87</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="9">
         <v>1.33</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="9">
         <f>C58+E58</f>
         <v>16.37</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="9">
         <f>D58</f>
         <v>3.5355339059327378</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="9">
         <f>F58</f>
         <v>1.33</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="12">
+      <c r="B60" s="9">
         <v>29</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="9">
         <f>AVERAGE(B59:B60)</f>
         <v>24</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="9">
         <f>STDEV(B59:B60)</f>
         <v>7.0710678118654755</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="9">
         <v>2.83</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="9">
         <v>1.66</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="9">
         <f>C60+E60</f>
         <v>26.83</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="9">
         <f>D60</f>
         <v>7.0710678118654755</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="9">
         <f>F60</f>
         <v>1.66</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="12">
+      <c r="B62" s="9">
         <v>7</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="9">
         <f>AVERAGE(B61:B62)</f>
         <v>13</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="9">
         <f>STDEV(B61:B62)</f>
         <v>8.4852813742385695</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="9">
         <v>4.3099999999999996</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="9">
         <f>C62+E62</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="9">
         <f>D62</f>
         <v>8.4852813742385695</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="9">
         <f>F62</f>
         <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="9">
         <v>40.1</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="12">
+      <c r="B64" s="9">
         <v>32.700000000000003</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="9">
         <f>AVERAGE(B63:B64)</f>
         <v>36.400000000000006</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="9">
         <f>STDEV(B63:B64)</f>
         <v>5.2325901807803756</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="9">
         <v>1.5</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="9">
         <v>1.7</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="9">
         <f>C64+E64</f>
         <v>37.900000000000006</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="9">
         <f>D64</f>
         <v>5.2325901807803756</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="9">
         <f>F64</f>
         <v>1.7</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="9">
         <v>28.5</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="12">
+      <c r="B66" s="9">
         <v>38.6</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="9">
         <f>AVERAGE(B65:B66)</f>
         <v>33.549999999999997</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="9">
         <f>STDEV(B65:B66)</f>
         <v>7.1417784899841692</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="9">
         <v>2.7</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="9">
         <f>C66+E66</f>
         <v>36.25</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="9">
         <f>D66</f>
         <v>7.1417784899841692</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="9">
         <f>F66</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="9">
         <v>37.1</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="12">
+      <c r="B68" s="9">
         <v>15.7</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="9">
         <f>AVERAGE(B67:B68)</f>
         <v>26.4</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="9">
         <f>STDEV(B67:B68)</f>
         <v>15.132085117392124</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="9">
         <v>2.4</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="9">
         <v>2.1</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="9">
         <f>C68+E68</f>
         <v>28.799999999999997</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="9">
         <f>D68</f>
         <v>15.132085117392124</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I68" s="9">
         <f>F68</f>
         <v>2.1</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="9">
         <v>47.4</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="12">
+      <c r="B70" s="9">
         <v>35.9</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="9">
         <f>AVERAGE(B69:B70)</f>
         <v>41.65</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="9">
         <f>STDEV(B69:B70)</f>
         <v>8.1317279836452965</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="9">
         <v>5.53</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="9">
         <f>C70+E70</f>
         <v>47.18</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="9">
         <f>D70</f>
         <v>8.1317279836452965</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="9">
         <f>F70</f>
         <v>4.9000000000000004</v>
       </c>
@@ -2368,24 +2405,30 @@
   <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="12" customWidth="1"/>
-    <col min="2" max="15" width="11.42578125" style="12"/>
-    <col min="16" max="16" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="18.42578125" style="13" customWidth="1"/>
+    <col min="2" max="15" width="11.42578125" style="9"/>
+    <col min="16" max="16" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
@@ -2412,2458 +2455,2458 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>39.6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>37.799999999999997</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <f>AVERAGE(B3:B4)</f>
         <v>38.700000000000003</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <f>STDEV(B3:B4)</f>
         <v>1.2727922061357886</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>17.899999999999999</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <f>C4+E4</f>
         <v>56.6</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="9">
         <f>D4</f>
         <v>1.2727922061357886</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <f>F4</f>
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>34.1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>28.6</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <f>AVERAGE(B5:B6)</f>
         <v>31.35</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <f>STDEV(B5:B6)</f>
         <v>3.8890872965260113</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>11.35</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>8.1</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <f>C6+E6</f>
         <v>42.7</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <f>D6</f>
         <v>3.8890872965260113</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <f>F6</f>
         <v>8.1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>1.4</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <f>AVERAGE(B7:B8)</f>
         <v>1.26</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <f>STDEV(B7:B8)</f>
         <v>0.19798989873223249</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>0.33</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>0.99</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <f>C8+E8</f>
         <v>1.59</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
         <f>D8</f>
         <v>0.19798989873223249</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="9">
         <f>F8</f>
         <v>0.99</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <f>AVERAGE(B9:B10)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <f>STDEV(B9:B10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>0.21</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="9">
         <v>0.59</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="9">
         <f>C10+E10</f>
         <v>1.21</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="9">
         <f>F10</f>
         <v>0.59</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <f>AVERAGE(B11:B12)</f>
         <v>7.1000000000000005</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <f>STDEV(B11:B12)</f>
         <v>3.8183766184073562</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>1.5</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="9">
         <f>C12+E12</f>
         <v>8.6000000000000014</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="9">
         <f>D12</f>
         <v>3.8183766184073562</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="9">
         <f>F12</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>7.9</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <f>AVERAGE(B13:B14)</f>
         <v>9.4499999999999993</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="9">
         <f>STDEV(B13:B14)</f>
         <v>2.1920310216783054</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>0.4</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="9">
         <v>0.59</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="9">
         <f>C14+E14</f>
         <v>9.85</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="9">
         <f>D14</f>
         <v>2.1920310216783054</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="9">
         <f>F14</f>
         <v>0.59</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="9">
         <v>4.8</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>5.2</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="9">
         <f>AVERAGE(B15:B16)</f>
         <v>5</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <f>STDEV(B15:B16)</f>
         <v>0.28284271247461928</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <v>0.3</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="9">
         <v>0.6</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="9">
         <f>C16+E16</f>
         <v>5.3</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="9">
         <f>D16</f>
         <v>0.28284271247461928</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="9">
         <f>F16</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="9">
         <v>5.6</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="9">
         <f>AVERAGE(B17:B18)</f>
         <v>5.25</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <f>STDEV(B17:B18)</f>
         <v>0.49497474683058273</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>0.2</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="9">
         <v>0.7</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="9">
         <f>C18+E18</f>
         <v>5.45</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="9">
         <f>D18</f>
         <v>0.49497474683058273</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="9">
         <f>F18</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="9">
         <v>6.1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>12.8</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <f>AVERAGE(B19:B20)</f>
         <v>9.4499999999999993</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="9">
         <f>STDEV(B19:B20)</f>
         <v>4.7376154339498733</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="9">
         <v>3.2</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="9">
         <v>2.4</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="9">
         <f>C20+E20</f>
         <v>12.649999999999999</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="9">
         <f>D20</f>
         <v>4.7376154339498733</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="9">
         <f>F20</f>
         <v>2.4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="9">
         <v>10.3</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>8.6</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="9">
         <f>AVERAGE(B21:B22)</f>
         <v>9.4499999999999993</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="9">
         <f>STDEV(B21:B22)</f>
         <v>1.2020815280171315</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="9">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="9">
         <v>3.6</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="9">
         <f>C22+E22</f>
         <v>19.25</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="9">
         <f>D22</f>
         <v>1.2020815280171315</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="9">
         <f>F22</f>
         <v>3.6</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <v>62</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="9">
         <f>AVERAGE(B23:B24)</f>
         <v>54.5</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="9">
         <f>STDEV(B23:B24)</f>
         <v>10.606601717798213</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="9">
         <v>50.9</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="9">
         <v>62.2</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="9">
         <f>C24+E24</f>
         <v>105.4</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="9">
         <f>D24</f>
         <v>10.606601717798213</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="9">
         <f>F24</f>
         <v>62.2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="9">
         <f>AVERAGE(B25:B26)</f>
         <v>10.85</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="9">
         <f>STDEV(B25:B26)</f>
         <v>3.040559159102155</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="9">
         <v>6.8</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="9">
         <v>5.6</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="9">
         <f>C26+E26</f>
         <v>17.649999999999999</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="9">
         <f>D26</f>
         <v>3.040559159102155</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="9">
         <f>F26</f>
         <v>5.6</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <v>17</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="9">
         <f>AVERAGE(B27:B28)</f>
         <v>14</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="9">
         <f>STDEV(B27:B28)</f>
         <v>4.2426406871192848</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="9">
         <v>31.7</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="9">
         <v>23.2</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="9">
         <f>C28+E28</f>
         <v>45.7</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="9">
         <f>D28</f>
         <v>4.2426406871192848</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="9">
         <f>F28</f>
         <v>23.2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>58.8</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
+      <c r="B30" s="9">
         <v>41</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="9">
         <f>AVERAGE(B29:B30)</f>
         <v>49.9</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="9">
         <f>STDEV(B29:B30)</f>
         <v>12.58650070512055</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="9">
         <v>47.2</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="9">
         <v>44.6</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="9">
         <f>C30+E30</f>
         <v>97.1</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="9">
         <f>D30</f>
         <v>12.58650070512055</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="9">
         <f>F30</f>
         <v>44.6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="9">
         <v>0.96</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="12">
+      <c r="B32" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="9">
         <f>AVERAGE(B31:B32)</f>
         <v>1.63</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="9">
         <f>STDEV(B31:B32)</f>
         <v>0.94752308678997332</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="9">
         <v>17.2</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="9">
         <v>8.5</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="9">
         <f>C32+E32</f>
         <v>18.829999999999998</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="9">
         <f>D32</f>
         <v>0.94752308678997332</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="9">
         <f>F32</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <v>12.4</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>AVERAGE(B33:B34)</f>
         <v>13.7</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>STDEV(B33:B34)</f>
         <v>1.8384776310850233</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <v>2.7</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <v>1.5</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <f>C34+E34</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="9">
         <f>D34</f>
         <v>1.8384776310850233</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="9">
         <f>F34</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="9">
         <v>7.5</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
+      <c r="B36" s="9">
         <v>5.9</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="9">
         <f>AVERAGE(B35:B36)</f>
         <v>6.7</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="9">
         <f>STDEV(B35:B36)</f>
         <v>1.1313708498984765</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="9">
         <v>4.3</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="9">
         <v>3.7</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="9">
         <f>C36+E36</f>
         <v>11</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="9">
         <f>D36</f>
         <v>1.1313708498984765</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="9">
         <f>F36</f>
         <v>3.7</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="9">
         <v>24.4</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="12">
+      <c r="B38" s="9">
         <v>30.1</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="9">
         <f>AVERAGE(B37:B38)</f>
         <v>27.25</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="9">
         <f>STDEV(B37:B38)</f>
         <v>4.0305086527633076</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="9">
         <v>3.6</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="9">
         <v>1.5</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="9">
         <f>C38+E38</f>
         <v>30.85</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="9">
         <f>D38</f>
         <v>4.0305086527633076</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="9">
         <f>F38</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="9">
         <v>29.5</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
+      <c r="B40" s="9">
         <v>25.9</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="9">
         <f>AVERAGE(B39:B40)</f>
         <v>27.7</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="9">
         <f>STDEV(B39:B40)</f>
         <v>2.5455844122715718</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="9">
         <v>6</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="9">
         <f>C40+E40</f>
         <v>36</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="9">
         <f>D40</f>
         <v>2.5455844122715718</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="9">
         <f>F40</f>
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="9">
         <v>20.2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="12">
+      <c r="B42" s="9">
         <v>28.7</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="9">
         <f>AVERAGE(B41:B42)</f>
         <v>24.45</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="9">
         <f>STDEV(B41:B42)</f>
         <v>6.0104076400856536</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="9">
         <v>6.5</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="9">
         <v>7.1</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="9">
         <f>C42+E42</f>
         <v>30.95</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="9">
         <f>D42</f>
         <v>6.0104076400856536</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="9">
         <f>F42</f>
         <v>7.1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="9">
         <v>46.1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
+      <c r="B44" s="9">
         <v>45.8</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="9">
         <f>AVERAGE(B43:B44)</f>
         <v>45.95</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="9">
         <f>STDEV(B43:B44)</f>
         <v>0.21213203435596725</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="9">
         <v>7.1</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="9">
         <v>3.6</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="9">
         <f>C44+E44</f>
         <v>53.050000000000004</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="9">
         <f>D44</f>
         <v>0.21213203435596725</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="9">
         <f>F44</f>
         <v>3.6</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="9">
         <v>24.6</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
+      <c r="B46" s="9">
         <v>10.3</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="9">
         <f>AVERAGE(B45:B46)</f>
         <v>17.450000000000003</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="9">
         <f>STDEV(B45:B46)</f>
         <v>10.111626970967624</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="9">
         <v>5.9</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="9">
         <v>2.1</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="9">
         <f>C46+E46</f>
         <v>23.35</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="9">
         <f>D46</f>
         <v>10.111626970967624</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="9">
         <f>F46</f>
         <v>2.1</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="9">
         <v>6.1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="12">
+      <c r="B48" s="9">
         <v>6</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="9">
         <f>AVERAGE(B47:B48)</f>
         <v>6.05</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="9">
         <f>STDEV(B47:B48)</f>
         <v>7.0710678118654502E-2</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="9">
         <v>2.6</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="9">
         <v>2.1</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="9">
         <f>C48+E48</f>
         <v>8.65</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="9">
         <f>D48</f>
         <v>7.0710678118654502E-2</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="9">
         <f>F48</f>
         <v>2.1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="9">
         <v>15.6</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
+      <c r="B50" s="9">
         <v>7.6</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="9">
         <f>AVERAGE(B49:B50)</f>
         <v>11.6</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="9">
         <f>STDEV(B49:B50)</f>
         <v>5.6568542494923806</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="9">
         <v>8.1</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="9">
         <v>6.1</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="9">
         <f>C50+E50</f>
         <v>19.7</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="9">
         <f>D50</f>
         <v>5.6568542494923806</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="9">
         <f>F50</f>
         <v>6.1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="9">
         <v>13.3</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="12">
+      <c r="B52" s="9">
         <v>8.9</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="9">
         <f>AVERAGE(B51:B52)</f>
         <v>11.100000000000001</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="9">
         <f>STDEV(B51:B52)</f>
         <v>3.1112698372208012</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="9">
         <v>0.38</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="9">
         <v>0.65</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="9">
         <f>C52+E52</f>
         <v>11.480000000000002</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="9">
         <f>D52</f>
         <v>3.1112698372208012</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="9">
         <f>F52</f>
         <v>0.65</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="9">
         <v>11.3</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
+      <c r="B54" s="9">
         <v>14.8</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="9">
         <f>AVERAGE(B53:B54)</f>
         <v>13.05</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="9">
         <f>STDEV(B53:B54)</f>
         <v>2.4748737341529163</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="9">
         <v>1.8</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="9">
         <v>1.5</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="9">
         <f>C54+E54</f>
         <v>14.850000000000001</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="9">
         <f>D54</f>
         <v>2.4748737341529163</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="9">
         <f>F54</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="9">
         <v>17.100000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="12">
+      <c r="B56" s="9">
         <v>15.2</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="9">
         <f>AVERAGE(B55:B56)</f>
         <v>16.149999999999999</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="9">
         <f>STDEV(B55:B56)</f>
         <v>1.3435028842544419</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="9">
         <v>14.4</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="9">
         <v>10.7</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="9">
         <f>C56+E56</f>
         <v>30.549999999999997</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="9">
         <f>D56</f>
         <v>1.3435028842544419</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="9">
         <f>F56</f>
         <v>10.7</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="9">
         <v>8.5</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="12">
+      <c r="B58" s="9">
         <v>9.4</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="9">
         <f>AVERAGE(B57:B58)</f>
         <v>8.9499999999999993</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="9">
         <f>STDEV(B57:B58)</f>
         <v>0.63639610306789296</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="9">
         <v>2.5</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="9">
         <f>C58+E58</f>
         <v>11.25</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="9">
         <f>D58</f>
         <v>0.63639610306789296</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="9">
         <f>F58</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="9">
         <v>2.6</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="12">
+      <c r="B60" s="9">
         <v>10.3</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="9">
         <f>AVERAGE(B59:B60)</f>
         <v>6.45</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="9">
         <f>STDEV(B59:B60)</f>
         <v>5.4447222151364185</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="9">
         <v>1.6</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="9">
         <v>1.3</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="9">
         <f>C60+E60</f>
         <v>8.0500000000000007</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="9">
         <f>D60</f>
         <v>5.4447222151364185</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="9">
         <f>F60</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="12">
+      <c r="B62" s="9">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="9">
         <f>AVERAGE(B61:B62)</f>
         <v>10.6</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="9">
         <f>STDEV(B61:B62)</f>
         <v>1.9798989873223298</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="9">
         <v>4.8</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="9">
         <v>6.9</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="9">
         <f>C62+E62</f>
         <v>15.399999999999999</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="9">
         <f>D62</f>
         <v>1.9798989873223298</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="9">
         <f>F62</f>
         <v>6.9</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="9">
         <v>35.6</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="12">
+      <c r="B64" s="9">
         <v>11.5</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="9">
         <f>AVERAGE(B63:B64)</f>
         <v>23.55</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="9">
         <f>STDEV(B63:B64)</f>
         <v>17.041273426595794</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="9">
         <v>4.2</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="9">
         <v>6.5</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="9">
         <f>C64+E64</f>
         <v>27.75</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="9">
         <f>D64</f>
         <v>17.041273426595794</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="9">
         <f>F64</f>
         <v>6.5</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="9">
         <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="12">
+      <c r="B66" s="9">
         <v>20.6</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="9">
         <f>AVERAGE(B65:B66)</f>
         <v>28.3</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="9">
         <f>STDEV(B65:B66)</f>
         <v>10.889444430272839</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="9">
         <v>15</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="9">
         <v>13.5</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="9">
         <f>C66+E66</f>
         <v>43.3</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="9">
         <f>D66</f>
         <v>10.889444430272839</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="9">
         <f>F66</f>
         <v>13.5</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="9">
         <v>7.3</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="12">
+      <c r="B68" s="9">
         <v>20.7</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="9">
         <f>AVERAGE(B67:B68)</f>
         <v>14</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="9">
         <f>STDEV(B67:B68)</f>
         <v>9.4752308678997359</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="9">
         <v>6.6</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="9">
         <v>3.1</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="9">
         <f>C68+E68</f>
         <v>20.6</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="9">
         <f>D68</f>
         <v>9.4752308678997359</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I68" s="9">
         <f>F68</f>
         <v>3.1</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="9">
         <v>15.5</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="12">
+      <c r="B70" s="9">
         <v>14</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="9">
         <f>AVERAGE(B69:B70)</f>
         <v>14.75</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="9">
         <f>STDEV(B69:B70)</f>
         <v>1.0606601717798212</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="9">
         <v>19.5</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="9">
         <v>10.6</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="9">
         <f>C70+E70</f>
         <v>34.25</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="9">
         <f>D70</f>
         <v>1.0606601717798212</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="9">
         <f>F70</f>
         <v>10.6</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="9">
         <v>2.7</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="12">
+      <c r="B72" s="9">
         <v>0.8</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="9">
         <f>AVERAGE(B71:B72)</f>
         <v>1.75</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="9">
         <f>STDEV(B71:B72)</f>
         <v>1.3435028842544408</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="9">
         <v>10.4</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="9">
         <v>5.4</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="9">
         <f>C72+E72</f>
         <v>12.15</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="9">
         <f>D72</f>
         <v>1.3435028842544408</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I72" s="9">
         <f>F72</f>
         <v>5.4</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="9">
         <v>15.8</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="12">
+      <c r="B74" s="9">
         <v>1.9</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="9">
         <f>AVERAGE(B73:B74)</f>
         <v>8.85</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="9">
         <f>STDEV(B73:B74)</f>
         <v>9.8287842584930125</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="9">
         <v>18.899999999999999</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="9">
         <v>10.1</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="9">
         <f>C74+E74</f>
         <v>27.75</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H74" s="9">
         <f>D74</f>
         <v>9.8287842584930125</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I74" s="9">
         <f>F74</f>
         <v>10.1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="12">
+      <c r="B75" s="9">
         <v>42.2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="12">
+      <c r="B76" s="9">
         <v>35.700000000000003</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="9">
         <f>AVERAGE(B75:B76)</f>
         <v>38.950000000000003</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="9">
         <f>STDEV(B75:B76)</f>
         <v>4.5961940777125587</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="9">
         <v>5.24</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="9">
         <v>4.46</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76" s="9">
         <f>C76+E76</f>
         <v>44.190000000000005</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H76" s="9">
         <f>D76</f>
         <v>4.5961940777125587</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I76" s="9">
         <f>F76</f>
         <v>4.46</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="9">
         <v>30.9</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="12">
+      <c r="B78" s="9">
         <v>46.7</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="9">
         <f>AVERAGE(B77:B78)</f>
         <v>38.799999999999997</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="9">
         <f>STDEV(B77:B78)</f>
         <v>11.172287142747479</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="9">
         <v>7.68</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="9">
         <v>7.38</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G78" s="9">
         <f>C78+E78</f>
         <v>46.48</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H78" s="9">
         <f>D78</f>
         <v>11.172287142747479</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I78" s="9">
         <f>F78</f>
         <v>7.38</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B79" s="9">
         <v>30.2</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="12">
+      <c r="B80" s="9">
         <v>14.2</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="9">
         <f>AVERAGE(B79:B80)</f>
         <v>22.2</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="9">
         <f>STDEV(B79:B80)</f>
         <v>11.313708498984756</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="9">
         <v>5.73</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="9">
         <v>5.22</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="9">
         <f>C80+E80</f>
         <v>27.93</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80" s="9">
         <f>D80</f>
         <v>11.313708498984756</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I80" s="9">
         <f>F80</f>
         <v>5.22</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="12">
+      <c r="B81" s="9">
         <v>11.1</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="12">
+      <c r="B82" s="9">
         <v>11.4</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="9">
         <f>AVERAGE(B81:B82)</f>
         <v>11.25</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="9">
         <f>STDEV(B81:B82)</f>
         <v>0.21213203435596475</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="9">
         <v>0.79</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="9">
         <v>1.8</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="9">
         <f>C82+E82</f>
         <v>12.04</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="9">
         <f>D82</f>
         <v>0.21213203435596475</v>
       </c>
-      <c r="I82" s="12">
+      <c r="I82" s="9">
         <f>F82</f>
         <v>1.8</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="12">
+      <c r="B83" s="9">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="12">
+      <c r="B84" s="9">
         <v>5.6</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="9">
         <f>AVERAGE(B83:B84)</f>
         <v>6.8999999999999995</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="9">
         <f>STDEV(B83:B84)</f>
         <v>1.8384776310850262</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E84" s="9">
         <v>1.95</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="9">
         <v>1.44</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G84" s="9">
         <f>C84+E84</f>
         <v>8.85</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H84" s="9">
         <f>D84</f>
         <v>1.8384776310850262</v>
       </c>
-      <c r="I84" s="12">
+      <c r="I84" s="9">
         <f>F84</f>
         <v>1.44</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B85" s="9">
         <v>35.700000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="12">
+      <c r="B86" s="9">
         <v>40.1</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="9">
         <f>AVERAGE(B85:B86)</f>
         <v>37.900000000000006</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="9">
         <f>STDEV(B85:B86)</f>
         <v>3.1112698372208079</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E86" s="9">
         <v>14.5</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="9">
         <v>12.3</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="9">
         <f>C86+E86</f>
         <v>52.400000000000006</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H86" s="9">
         <f>D86</f>
         <v>3.1112698372208079</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I86" s="9">
         <f>E86</f>
         <v>14.5</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="9">
         <v>28.7</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="12">
+      <c r="B88" s="9">
         <v>12.5</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="9">
         <f>AVERAGE(B87:B88)</f>
         <v>20.6</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D88" s="9">
         <f>STDEV(B87:B88)</f>
         <v>11.455129855222062</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="9">
         <v>2.83</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="9">
         <v>2.89</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G88" s="9">
         <f>C88+E88</f>
         <v>23.43</v>
       </c>
-      <c r="H88" s="12">
+      <c r="H88" s="9">
         <f>D88</f>
         <v>11.455129855222062</v>
       </c>
-      <c r="I88" s="12">
+      <c r="I88" s="9">
         <f>E88</f>
         <v>2.83</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B89" s="9">
         <v>8.4</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="12">
+      <c r="B90" s="9">
         <v>5.9</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="9">
         <f>AVERAGE(B89:B90)</f>
         <v>7.15</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="9">
         <f>STDEV(B89:B90)</f>
         <v>1.7677669529663689</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E90" s="9">
         <v>2.8</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F90" s="9">
         <v>1.7</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G90" s="9">
         <f>C90+E90</f>
         <v>9.9499999999999993</v>
       </c>
-      <c r="H90" s="12">
+      <c r="H90" s="9">
         <f>D90</f>
         <v>1.7677669529663689</v>
       </c>
-      <c r="I90" s="12">
+      <c r="I90" s="9">
         <f>E90</f>
         <v>2.8</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="9">
         <v>12.4</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="12">
+      <c r="B92" s="9">
         <v>7.8</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="9">
         <f>AVERAGE(B91:B92)</f>
         <v>10.1</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="9">
         <f>STDEV(B91:B92)</f>
         <v>3.2526911934581251</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E92" s="9">
         <v>0.39</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F92" s="9">
         <v>0.72</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G92" s="9">
         <f>C92+E92</f>
         <v>10.49</v>
       </c>
-      <c r="H92" s="12">
+      <c r="H92" s="9">
         <f>D92</f>
         <v>3.2526911934581251</v>
       </c>
-      <c r="I92" s="12">
+      <c r="I92" s="9">
         <f>E92</f>
         <v>0.39</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B93" s="12">
+      <c r="B93" s="9">
         <v>25.4</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="12">
+      <c r="B94" s="9">
         <v>6.9</v>
       </c>
-      <c r="C94" s="12">
+      <c r="C94" s="9">
         <f>AVERAGE(B93:B94)</f>
         <v>16.149999999999999</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="9">
         <f>STDEV(B93:B94)</f>
         <v>13.081475451951134</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="9">
         <v>3.8</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F94" s="9">
         <v>5.56</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G94" s="9">
         <f>C94+E94</f>
         <v>19.95</v>
       </c>
-      <c r="H94" s="12">
+      <c r="H94" s="9">
         <f>D94</f>
         <v>13.081475451951134</v>
       </c>
-      <c r="I94" s="12">
+      <c r="I94" s="9">
         <f>E94</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="12">
+      <c r="B95" s="9">
         <v>52.4</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="12">
+      <c r="B96" s="9">
         <v>15.3</v>
       </c>
-      <c r="C96" s="12">
+      <c r="C96" s="9">
         <f>AVERAGE(B95:B96)</f>
         <v>33.85</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D96" s="9">
         <f>STDEV(B95:B96)</f>
         <v>26.233661582020911</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E96" s="9">
         <v>17</v>
       </c>
-      <c r="F96" s="12">
+      <c r="F96" s="9">
         <v>14.21</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G96" s="9">
         <f>C96+E96</f>
         <v>50.85</v>
       </c>
-      <c r="H96" s="12">
+      <c r="H96" s="9">
         <f>D96</f>
         <v>26.233661582020911</v>
       </c>
-      <c r="I96" s="12">
+      <c r="I96" s="9">
         <f>E96</f>
         <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="9">
         <v>27.3</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="12">
+      <c r="B98" s="9">
         <v>18.399999999999999</v>
       </c>
-      <c r="C98" s="12">
+      <c r="C98" s="9">
         <f>AVERAGE(B97:B98)</f>
         <v>22.85</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D98" s="9">
         <f>STDEV(B97:B98)</f>
         <v>6.2932503525602561</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E98" s="9">
         <v>5.34</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F98" s="9">
         <v>3.29</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G98" s="9">
         <f>C98+E98</f>
         <v>28.19</v>
       </c>
-      <c r="H98" s="12">
+      <c r="H98" s="9">
         <f>D98</f>
         <v>6.2932503525602561</v>
       </c>
-      <c r="I98" s="12">
+      <c r="I98" s="9">
         <f>E98</f>
         <v>5.34</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="12">
+      <c r="B99" s="9">
         <v>22.6</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="12">
+      <c r="B100" s="9">
         <v>15.5</v>
       </c>
-      <c r="C100" s="12">
+      <c r="C100" s="9">
         <f>AVERAGE(B99:B100)</f>
         <v>19.05</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D100" s="9">
         <f>STDEV(B99:B100)</f>
         <v>5.0204581464244802</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E100" s="9">
         <v>10.1</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F100" s="9">
         <v>5.44</v>
       </c>
-      <c r="G100" s="12">
+      <c r="G100" s="9">
         <f>C100+E100</f>
         <v>29.15</v>
       </c>
-      <c r="H100" s="12">
+      <c r="H100" s="9">
         <f>D100</f>
         <v>5.0204581464244802</v>
       </c>
-      <c r="I100" s="12">
+      <c r="I100" s="9">
         <f>E100</f>
         <v>10.1</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B101" s="12">
+      <c r="B101" s="9">
         <v>14.8</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="12">
+      <c r="B102" s="9">
         <v>17.2</v>
       </c>
-      <c r="C102" s="12">
+      <c r="C102" s="9">
         <f>AVERAGE(B101:B102)</f>
         <v>16</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="9">
         <f>STDEV(B101:B102)</f>
         <v>1.6970562748477132</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E102" s="9">
         <v>13.15</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F102" s="9">
         <v>8.3699999999999992</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G102" s="9">
         <f>C102+E102</f>
         <v>29.15</v>
       </c>
-      <c r="H102" s="12">
+      <c r="H102" s="9">
         <f>D102</f>
         <v>1.6970562748477132</v>
       </c>
-      <c r="I102" s="12">
+      <c r="I102" s="9">
         <f>E102</f>
         <v>13.15</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B103" s="12">
+      <c r="B103" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="12">
+      <c r="B104" s="9">
         <v>13.5</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="9">
         <f>AVERAGE(B103:B104)</f>
         <v>11.75</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="9">
         <f>STDEV(B103:B104)</f>
         <v>2.4748737341529163</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E104" s="9">
         <v>13.5</v>
       </c>
-      <c r="F104" s="12">
+      <c r="F104" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G104" s="9">
         <f>C104+E104</f>
         <v>25.25</v>
       </c>
-      <c r="H104" s="12">
+      <c r="H104" s="9">
         <f>D104</f>
         <v>2.4748737341529163</v>
       </c>
-      <c r="I104" s="12">
+      <c r="I104" s="9">
         <f>E104</f>
         <v>13.5</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B105" s="12">
+      <c r="B105" s="9">
         <v>20.9</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="12">
+      <c r="B106" s="9">
         <v>13</v>
       </c>
-      <c r="C106" s="12">
+      <c r="C106" s="9">
         <f>AVERAGE(B105:B106)</f>
         <v>16.95</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="9">
         <f>STDEV(B105:B106)</f>
         <v>5.5861435713737295</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E106" s="9">
         <v>2.46</v>
       </c>
-      <c r="F106" s="12">
+      <c r="F106" s="9">
         <v>2.92</v>
       </c>
-      <c r="G106" s="12">
+      <c r="G106" s="9">
         <f>C106+E106</f>
         <v>19.41</v>
       </c>
-      <c r="H106" s="12">
+      <c r="H106" s="9">
         <f>D106</f>
         <v>5.5861435713737295</v>
       </c>
-      <c r="I106" s="12">
+      <c r="I106" s="9">
         <f>E106</f>
         <v>2.46</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B107" s="12">
+      <c r="B107" s="9">
         <v>22.2</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="12">
+      <c r="B108" s="9">
         <v>23.1</v>
       </c>
-      <c r="C108" s="12">
+      <c r="C108" s="9">
         <f>AVERAGE(B107:B108)</f>
         <v>22.65</v>
       </c>
-      <c r="D108" s="12">
+      <c r="D108" s="9">
         <f>STDEV(B107:B108)</f>
         <v>0.63639610306789429</v>
       </c>
-      <c r="E108" s="12">
+      <c r="E108" s="9">
         <v>1.17</v>
       </c>
-      <c r="F108" s="12">
+      <c r="F108" s="9">
         <v>2.23</v>
       </c>
-      <c r="G108" s="12">
+      <c r="G108" s="9">
         <f>C108+E108</f>
         <v>23.82</v>
       </c>
-      <c r="H108" s="12">
+      <c r="H108" s="9">
         <f>D108</f>
         <v>0.63639610306789429</v>
       </c>
-      <c r="I108" s="12">
+      <c r="I108" s="9">
         <f>E108</f>
         <v>1.17</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B109" s="12">
+      <c r="B109" s="9">
         <v>26.7</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="12">
+      <c r="B110" s="9">
         <v>22.9</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="9">
         <f>AVERAGE(B109:B110)</f>
         <v>24.799999999999997</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D110" s="9">
         <f>STDEV(B109:B110)</f>
         <v>2.6870057685088811</v>
       </c>
-      <c r="E110" s="12">
+      <c r="E110" s="9">
         <v>3.89</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F110" s="9">
         <v>3.32</v>
       </c>
-      <c r="G110" s="12">
+      <c r="G110" s="9">
         <f>C110+E110</f>
         <v>28.689999999999998</v>
       </c>
-      <c r="H110" s="12">
+      <c r="H110" s="9">
         <f>D110</f>
         <v>2.6870057685088811</v>
       </c>
-      <c r="I110" s="12">
+      <c r="I110" s="9">
         <f>E110</f>
         <v>3.89</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B111" s="12">
+      <c r="B111" s="9">
         <v>4.5</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="12">
+      <c r="B112" s="9">
         <v>3.4</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="9">
         <f>AVERAGE(B111:B112)</f>
         <v>3.95</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D112" s="9">
         <f>STDEV(B111:B112)</f>
         <v>0.7778174593052003</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E112" s="9">
         <v>0.4</v>
       </c>
-      <c r="F112" s="12">
+      <c r="F112" s="9">
         <v>0.94</v>
       </c>
-      <c r="G112" s="12">
+      <c r="G112" s="9">
         <f>C112+E112</f>
         <v>4.3500000000000005</v>
       </c>
-      <c r="H112" s="12">
+      <c r="H112" s="9">
         <f>D112</f>
         <v>0.7778174593052003</v>
       </c>
-      <c r="I112" s="12">
+      <c r="I112" s="9">
         <f>E112</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B113" s="12">
+      <c r="B113" s="9">
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="12">
+      <c r="B114" s="9">
         <v>0.86</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="9">
         <f>AVERAGE(B113:B114)</f>
         <v>1.0049999999999999</v>
       </c>
-      <c r="D114" s="12">
+      <c r="D114" s="9">
         <f>STDEV(B113:B114)</f>
         <v>0.20506096654409914</v>
       </c>
-      <c r="E114" s="12">
+      <c r="E114" s="9">
         <v>0.08</v>
       </c>
-      <c r="F114" s="12">
+      <c r="F114" s="9">
         <v>0.32</v>
       </c>
-      <c r="G114" s="12">
+      <c r="G114" s="9">
         <f>C114+E114</f>
         <v>1.085</v>
       </c>
-      <c r="H114" s="12">
+      <c r="H114" s="9">
         <f>D114</f>
         <v>0.20506096654409914</v>
       </c>
-      <c r="I114" s="12">
+      <c r="I114" s="9">
         <f>E114</f>
         <v>0.08</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B115" s="12">
+      <c r="B115" s="9">
         <v>3.2</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="12">
+      <c r="B116" s="9">
         <v>2.5</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="9">
         <f>AVERAGE(B115:B116)</f>
         <v>2.85</v>
       </c>
-      <c r="D116" s="12">
+      <c r="D116" s="9">
         <f>STDEV(B115:B116)</f>
         <v>0.49497474683058429</v>
       </c>
-      <c r="E116" s="12">
+      <c r="E116" s="9">
         <v>2.31</v>
       </c>
-      <c r="F116" s="12">
+      <c r="F116" s="9">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G116" s="12">
+      <c r="G116" s="9">
         <f>C116+E116</f>
         <v>5.16</v>
       </c>
-      <c r="H116" s="12">
+      <c r="H116" s="9">
         <f>D116</f>
         <v>0.49497474683058429</v>
       </c>
-      <c r="I116" s="12">
+      <c r="I116" s="9">
         <f>E116</f>
         <v>2.31</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B117" s="12">
+      <c r="B117" s="9">
         <v>2.9</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="12">
+      <c r="B118" s="9">
         <v>5.6</v>
       </c>
-      <c r="C118" s="12">
+      <c r="C118" s="9">
         <f>AVERAGE(B117:B118)</f>
         <v>4.25</v>
       </c>
-      <c r="D118" s="12">
+      <c r="D118" s="9">
         <f>STDEV(B117:B118)</f>
         <v>1.9091883092036772</v>
       </c>
-      <c r="E118" s="12">
+      <c r="E118" s="9">
         <v>1.55</v>
       </c>
-      <c r="F118" s="12">
+      <c r="F118" s="9">
         <v>1.93</v>
       </c>
-      <c r="G118" s="12">
+      <c r="G118" s="9">
         <f>C118+E118</f>
         <v>5.8</v>
       </c>
-      <c r="H118" s="12">
+      <c r="H118" s="9">
         <f>D118</f>
         <v>1.9091883092036772</v>
       </c>
-      <c r="I118" s="12">
+      <c r="I118" s="9">
         <f>E118</f>
         <v>1.55</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B119" s="12">
+      <c r="B119" s="9">
         <v>53.9</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="12">
+      <c r="B120" s="9">
         <v>68.400000000000006</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="9">
         <f>AVERAGE(B119:B120)</f>
         <v>61.150000000000006</v>
       </c>
-      <c r="D120" s="12">
+      <c r="D120" s="9">
         <f>STDEV(B119:B120)</f>
         <v>10.253048327204894</v>
       </c>
-      <c r="E120" s="12">
+      <c r="E120" s="9">
         <v>21.56</v>
       </c>
-      <c r="F120" s="12">
+      <c r="F120" s="9">
         <v>14.65</v>
       </c>
-      <c r="G120" s="12">
+      <c r="G120" s="9">
         <f>C120+E120</f>
         <v>82.710000000000008</v>
       </c>
-      <c r="H120" s="12">
+      <c r="H120" s="9">
         <f>D120</f>
         <v>10.253048327204894</v>
       </c>
-      <c r="I120" s="12">
+      <c r="I120" s="9">
         <f>E120</f>
         <v>21.56</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B121" s="12">
+      <c r="B121" s="9">
         <v>8.9</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="12">
+      <c r="B122" s="9">
         <v>13.9</v>
       </c>
-      <c r="C122" s="12">
+      <c r="C122" s="9">
         <f>AVERAGE(B121:B122)</f>
         <v>11.4</v>
       </c>
-      <c r="D122" s="12">
+      <c r="D122" s="9">
         <f>STDEV(B121:B122)</f>
         <v>3.5355339059327378</v>
       </c>
-      <c r="E122" s="12">
+      <c r="E122" s="9">
         <v>4.58</v>
       </c>
-      <c r="F122" s="12">
+      <c r="F122" s="9">
         <v>3.24</v>
       </c>
-      <c r="G122" s="12">
+      <c r="G122" s="9">
         <f>C122+E122</f>
         <v>15.98</v>
       </c>
-      <c r="H122" s="12">
+      <c r="H122" s="9">
         <f>D122</f>
         <v>3.5355339059327378</v>
       </c>
-      <c r="I122" s="12">
+      <c r="I122" s="9">
         <f>E122</f>
         <v>4.58</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B123" s="12">
+      <c r="B123" s="9">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="12">
+      <c r="B124" s="9">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C124" s="12">
+      <c r="C124" s="9">
         <f>AVERAGE(B123:B124)</f>
         <v>8.75</v>
       </c>
-      <c r="D124" s="12">
+      <c r="D124" s="9">
         <f>STDEV(B123:B124)</f>
         <v>0.7778174593052033</v>
       </c>
-      <c r="E124" s="12">
+      <c r="E124" s="9">
         <v>6.12</v>
       </c>
-      <c r="F124" s="12">
+      <c r="F124" s="9">
         <v>3.14</v>
       </c>
-      <c r="G124" s="12">
+      <c r="G124" s="9">
         <f>C124+E124</f>
         <v>14.870000000000001</v>
       </c>
-      <c r="H124" s="12">
+      <c r="H124" s="9">
         <f>D124</f>
         <v>0.7778174593052033</v>
       </c>
-      <c r="I124" s="12">
+      <c r="I124" s="9">
         <f>E124</f>
         <v>6.12</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B125" s="12">
+      <c r="B125" s="9">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="12">
+      <c r="B126" s="9">
         <v>8.5</v>
       </c>
-      <c r="C126" s="12">
+      <c r="C126" s="9">
         <f>AVERAGE(B125:B126)</f>
         <v>8.6</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D126" s="9">
         <f>STDEV(B125:B126)</f>
         <v>0.141421356237309</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E126" s="9">
         <v>5.47</v>
       </c>
-      <c r="F126" s="12">
+      <c r="F126" s="9">
         <v>3.71</v>
       </c>
-      <c r="G126" s="12">
+      <c r="G126" s="9">
         <f>C126+E126</f>
         <v>14.07</v>
       </c>
-      <c r="H126" s="12">
+      <c r="H126" s="9">
         <f>D126</f>
         <v>0.141421356237309</v>
       </c>
-      <c r="I126" s="12">
+      <c r="I126" s="9">
         <f>E126</f>
         <v>5.47</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B127" s="12">
+      <c r="B127" s="9">
         <v>5.9</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="12">
+      <c r="B128" s="9">
         <v>7.3</v>
       </c>
-      <c r="C128" s="12">
+      <c r="C128" s="9">
         <f>AVERAGE(B127:B128)</f>
         <v>6.6</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D128" s="9">
         <f>STDEV(B127:B128)</f>
         <v>0.98994949366116858</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E128" s="9">
         <v>10.85</v>
       </c>
-      <c r="F128" s="12">
+      <c r="F128" s="9">
         <v>5.47</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G128" s="9">
         <f>C128+E128</f>
         <v>17.45</v>
       </c>
-      <c r="H128" s="12">
+      <c r="H128" s="9">
         <f>D128</f>
         <v>0.98994949366116858</v>
       </c>
-      <c r="I128" s="12">
+      <c r="I128" s="9">
         <f>E128</f>
         <v>10.85</v>
       </c>
@@ -4879,19 +4922,26 @@
   <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="17" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="17"/>
+    <col min="1" max="1" width="17.140625" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>78</v>
       </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -4921,2497 +4971,2497 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="11">
         <v>55.46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="17">
+      <c r="B4" s="11">
         <v>60.6</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="11">
         <f>AVERAGE(B3:B4)</f>
         <v>58.03</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="11">
         <f>STDEV(B3:B4)</f>
         <v>3.6345288552988548</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="11">
         <v>11.16</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="11">
         <v>8.61</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="11">
         <f>C4+E4</f>
         <v>69.19</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="11">
         <f>D4</f>
         <v>3.6345288552988548</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="11">
         <f>F4</f>
         <v>8.61</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="11">
         <v>52.92</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="17">
+      <c r="B6" s="11">
         <v>36.4</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="11">
         <f>AVERAGE(B5:B6)</f>
         <v>44.66</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="11">
         <f>STDEV(B5:B6)</f>
         <v>11.681404025201779</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="11">
         <v>8.35</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="11">
         <v>5.56</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="11">
         <f>C6+E6</f>
         <v>53.01</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="11">
         <f>D6</f>
         <v>11.681404025201779</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="11">
         <f>F6</f>
         <v>5.56</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="11">
         <v>63.2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="17">
+      <c r="B8" s="11">
         <v>70.099999999999994</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="11">
         <f>AVERAGE(B7:B8)</f>
         <v>66.650000000000006</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="11">
         <f>STDEV(B7:B8)</f>
         <v>4.8790367901871718</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="11">
         <v>9.2799999999999994</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="11">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="11">
         <f>C8+E8</f>
         <v>75.930000000000007</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="11">
         <f>D8</f>
         <v>4.8790367901871718</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="11">
         <f>F8</f>
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="11">
         <v>115.4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+      <c r="B10" s="11">
         <v>56.8</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="11">
         <f>AVERAGE(B9:B10)</f>
         <v>86.1</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="11">
         <f>STDEV(B9:B10)</f>
         <v>41.436457377531724</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="11">
         <v>8.9700000000000006</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="11">
         <v>4.4800000000000004</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="11">
         <f>C10+E10</f>
         <v>95.07</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="11">
         <f>D10</f>
         <v>41.436457377531724</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="11">
         <f>F10</f>
         <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="11">
         <v>26.8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="17">
+      <c r="B12" s="11">
         <v>35.9</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="11">
         <f>AVERAGE(B11:B12)</f>
         <v>31.35</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="11">
         <f>STDEV(B11:B12)</f>
         <v>6.4346717087975627</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="11">
         <v>6.71</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="11">
         <v>5.0199999999999996</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="11">
         <f>C12+E12</f>
         <v>38.06</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="11">
         <f>D12</f>
         <v>6.4346717087975627</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="11">
         <f>F12</f>
         <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="11">
         <v>35.4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="17">
+      <c r="B14" s="11">
         <v>30.7</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="11">
         <f>AVERAGE(B13:B14)</f>
         <v>33.049999999999997</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="11">
         <f>STDEV(B13:B14)</f>
         <v>3.323401871576773</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="11">
         <v>2.1</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="11">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="11">
         <f>C14+E14</f>
         <v>35.15</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="11">
         <f>D14</f>
         <v>3.323401871576773</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="11">
         <f>F14</f>
         <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="11">
         <v>34.9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="17">
+      <c r="B16" s="11">
         <v>20.7</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="11">
         <f>AVERAGE(B15:B16)</f>
         <v>27.799999999999997</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="11">
         <f>STDEV(B15:B16)</f>
         <v>10.040916292848994</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="11">
         <v>1.26</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="11">
         <v>3.64</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="11">
         <f>C16+E16</f>
         <v>29.06</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="11">
         <f>D16</f>
         <v>10.040916292848994</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="11">
         <f>F16</f>
         <v>3.64</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="11">
         <v>28.9</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="17">
+      <c r="B18" s="11">
         <v>23.2</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="11">
         <f>AVERAGE(B17:B18)</f>
         <v>26.049999999999997</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="11">
         <f>STDEV(B17:B18)</f>
         <v>4.0305086527633351</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="11">
         <v>1.04</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="11">
         <v>1.35</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="11">
         <f>C18+E18</f>
         <v>27.089999999999996</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="11">
         <f>D18</f>
         <v>4.0305086527633351</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="11">
         <f>F18</f>
         <v>1.35</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="11">
         <v>34.299999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="17">
+      <c r="B20" s="11">
         <v>32.9</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="11">
         <f>AVERAGE(B19:B20)</f>
         <v>33.599999999999994</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="11">
         <f>STDEV(B19:B20)</f>
         <v>0.98994949366116547</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="11">
         <v>1.04</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="11">
         <v>1.85</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="11">
         <f>C20+E20</f>
         <v>34.639999999999993</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="11">
         <f>D20</f>
         <v>0.98994949366116547</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="11">
         <f>F20</f>
         <v>1.85</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="11">
         <v>32.6</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="17">
+      <c r="B22" s="11">
         <v>33.299999999999997</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="11">
         <f>AVERAGE(B21:B22)</f>
         <v>32.950000000000003</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="11">
         <f>STDEV(B21:B22)</f>
         <v>0.49497474683058024</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="11">
         <v>1.04</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="11">
         <v>19.86</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="11">
         <f>C22+E22</f>
         <v>33.99</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="11">
         <f>D22</f>
         <v>0.49497474683058024</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="11">
         <f>F22</f>
         <v>19.86</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="11">
         <v>29.5</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="17">
+      <c r="B24" s="11">
         <v>21.9</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="11">
         <f>AVERAGE(B23:B24)</f>
         <v>25.7</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="11">
         <f>STDEV(B23:B24)</f>
         <v>5.3740115370177506</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="11">
         <v>1.04</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="11">
         <v>1.58</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="11">
         <f>C24+E24</f>
         <v>26.74</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="11">
         <f>D24</f>
         <v>5.3740115370177506</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="11">
         <f>F24</f>
         <v>1.58</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="11">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="17">
+      <c r="B26" s="11">
         <v>29.5</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="11">
         <f>AVERAGE(B25:B26)</f>
         <v>30.25</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="11">
         <f>STDEV(B25:B26)</f>
         <v>1.0606601717798212</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="11">
         <v>5.8</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="11">
         <v>3.28</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="11">
         <f>C26+E26</f>
         <v>36.049999999999997</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="11">
         <f>D26</f>
         <v>1.0606601717798212</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="11">
         <f>F26</f>
         <v>3.28</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="17">
+      <c r="B28" s="11">
         <v>17</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="11">
         <f>AVERAGE(B27:B28)</f>
         <v>23.5</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="11">
         <f>STDEV(B27:B28)</f>
         <v>9.1923881554251174</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="11">
         <v>0.72</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="11">
         <v>1.32</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="11">
         <f>C28+E28</f>
         <v>24.22</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="11">
         <f>D28</f>
         <v>9.1923881554251174</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="11">
         <f>F28</f>
         <v>1.32</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="11">
         <v>62.2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="17">
+      <c r="B30" s="11">
         <v>40.799999999999997</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="11">
         <f>AVERAGE(B29:B30)</f>
         <v>51.5</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="11">
         <f>STDEV(B29:B30)</f>
         <v>15.132085117392103</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="11">
         <v>2.69</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="11">
         <v>2.54</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="11">
         <f>C30+E30</f>
         <v>54.19</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="11">
         <f>D30</f>
         <v>15.132085117392103</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="11">
         <f>F30</f>
         <v>2.54</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="11">
         <v>35.200000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="17">
+      <c r="B32" s="11">
         <v>36.299999999999997</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="11">
         <f>AVERAGE(B31:B32)</f>
         <v>35.75</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="11">
         <f>STDEV(B31:B32)</f>
         <v>0.7778174593051983</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="11">
         <v>6.41</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="11">
         <v>3.72</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="11">
         <f>C32+E32</f>
         <v>42.16</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="11">
         <f>D32</f>
         <v>0.7778174593051983</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="11">
         <f>F32</f>
         <v>3.72</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="11">
         <v>42.9</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="17">
+      <c r="B34" s="11">
         <v>34.700000000000003</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="11">
         <f>AVERAGE(B33:B34)</f>
         <v>38.799999999999997</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="11">
         <f>STDEV(B33:B34)</f>
         <v>5.7982756057297191</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="11">
         <v>16.96</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="11">
         <v>9.7200000000000006</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="11">
         <f>C34+E34</f>
         <v>55.76</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="11">
         <f>D34</f>
         <v>5.7982756057297191</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="11">
         <f>F34</f>
         <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="11">
         <v>17.14</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="17">
+      <c r="B36" s="11">
         <v>28</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="11">
         <f>AVERAGE(B35:B36)</f>
         <v>22.57</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="11">
         <f>STDEV(B35:B36)</f>
         <v>7.6791796436859112</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="11">
         <v>2.74</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="11">
         <v>1.53</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="11">
         <f>C36+E36</f>
         <v>25.310000000000002</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="11">
         <f>D36</f>
         <v>7.6791796436859112</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="11">
         <f>F36</f>
         <v>1.53</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="11">
         <v>88.8</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="17">
+      <c r="B38" s="11">
         <v>89.1</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="11">
         <f>AVERAGE(B37:B38)</f>
         <v>88.949999999999989</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="11">
         <f>STDEV(B37:B38)</f>
         <v>0.21213203435596226</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="11">
         <v>13.2</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="11">
         <v>6.6</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="11">
         <f>C38+E38</f>
         <v>102.14999999999999</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="11">
         <f>D38</f>
         <v>0.21213203435596226</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="11">
         <f>F38</f>
         <v>6.6</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="11">
         <v>32.799999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="17">
+      <c r="B40" s="11">
         <v>52.9</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="11">
         <f>AVERAGE(B39:B40)</f>
         <v>42.849999999999994</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="11">
         <f>STDEV(B39:B40)</f>
         <v>14.212846301849641</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="11">
         <v>4.2</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="11">
         <v>3.7</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="11">
         <f>C40+E40</f>
         <v>47.05</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="11">
         <f>D40</f>
         <v>14.212846301849641</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="11">
         <f>F40</f>
         <v>3.7</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="11">
         <v>31.2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="17">
+      <c r="B42" s="11">
         <v>28.9</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="11">
         <f>AVERAGE(B41:B42)</f>
         <v>30.049999999999997</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="11">
         <f>STDEV(B41:B42)</f>
         <v>1.6263455967290597</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="11">
         <v>7.5</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="11">
         <v>3.3</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="11">
         <f>C42+E42</f>
         <v>37.549999999999997</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="11">
         <f>D42</f>
         <v>1.6263455967290597</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="11">
         <f>F42</f>
         <v>3.3</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="11">
         <v>30.1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="17">
+      <c r="B44" s="11">
         <v>11.2</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="11">
         <f>AVERAGE(B43:B44)</f>
         <v>20.65</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="11">
         <f>STDEV(B43:B44)</f>
         <v>13.364318164425754</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="11">
         <v>2.8</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="11">
         <v>1.5</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="11">
         <f>C44+E44</f>
         <v>23.45</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="11">
         <f>D44</f>
         <v>13.364318164425754</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="11">
         <f>F44</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="11">
         <v>14.2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="17">
+      <c r="B46" s="11">
         <v>12.5</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="11">
         <f>AVERAGE(B45:B46)</f>
         <v>13.35</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="11">
         <f>STDEV(B45:B46)</f>
         <v>1.2020815280171302</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="11">
         <v>1.8</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="11">
         <f>C46+E46</f>
         <v>15.649999999999999</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="11">
         <f>D46</f>
         <v>1.2020815280171302</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="11">
         <f>F46</f>
         <v>1.8</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="11">
         <v>52.7</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="17">
+      <c r="B48" s="11">
         <v>26.5</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="11">
         <f>AVERAGE(B47:B48)</f>
         <v>39.6</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="11">
         <f>STDEV(B47:B48)</f>
         <v>18.526197667087551</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="11">
         <v>3.1</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="11">
         <v>1.9</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="11">
         <f>C48+E48</f>
         <v>42.7</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="11">
         <f>D48</f>
         <v>18.526197667087551</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="11">
         <f>F48</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="11">
         <v>10.9</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="17">
+      <c r="B50" s="11">
         <v>20.399999999999999</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="11">
         <f>AVERAGE(B49:B50)</f>
         <v>15.649999999999999</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="11">
         <f>STDEV(B49:B50)</f>
         <v>6.7175144212722095</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="11">
         <v>6</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="11">
         <v>3.7</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="11">
         <f>C50+E50</f>
         <v>21.65</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="11">
         <f>D50</f>
         <v>6.7175144212722095</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="11">
         <f>F50</f>
         <v>3.7</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="11">
         <v>17.3</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="17">
+      <c r="B52" s="11">
         <v>15.3</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="11">
         <f>AVERAGE(B51:B52)</f>
         <v>16.3</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="11">
         <f>STDEV(B51:B52)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="11">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="11">
         <v>6</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="11">
         <f>C52+E52</f>
         <v>26</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="11">
         <f>D52</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="11">
         <f>F52</f>
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="11">
         <v>30.6</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="17">
+      <c r="B54" s="11">
         <v>35.5</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="11">
         <f>AVERAGE(B53:B54)</f>
         <v>33.049999999999997</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="11">
         <f>STDEV(B53:B54)</f>
         <v>3.4648232278140818</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="11">
         <v>24.9</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="11">
         <v>16.8</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="11">
         <f>C54+E54</f>
         <v>57.949999999999996</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="11">
         <f>D54</f>
         <v>3.4648232278140818</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="11">
         <f>F54</f>
         <v>16.8</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="11">
         <v>18.600000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="17">
+      <c r="B56" s="11">
         <v>32.200000000000003</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="11">
         <f>AVERAGE(B55:B56)</f>
         <v>25.400000000000002</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="11">
         <f>STDEV(B55:B56)</f>
         <v>9.6166522241370469</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="11">
         <v>3.6</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="11">
         <v>3.1</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="11">
         <f>C56+E56</f>
         <v>29.000000000000004</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="11">
         <f>D56</f>
         <v>9.6166522241370469</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="11">
         <f>F56</f>
         <v>3.1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="11">
         <v>24.5</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="17">
+      <c r="B58" s="11">
         <v>59.4</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="11">
         <f>AVERAGE(B57:B58)</f>
         <v>41.95</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="11">
         <f>STDEV(B57:B58)</f>
         <v>24.678026663410492</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="11">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="11">
         <v>4</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="11">
         <f>C58+E58</f>
         <v>51.75</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="11">
         <f>D58</f>
         <v>24.678026663410492</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="11">
         <f>F58</f>
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="11">
         <v>17.3</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="17">
+      <c r="B60" s="11">
         <v>15.2</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="11">
         <f>AVERAGE(B59:B60)</f>
         <v>16.25</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="11">
         <f>STDEV(B59:B60)</f>
         <v>1.4849242404917509</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="11">
         <v>1.6</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="11">
         <f>C60+E60</f>
         <v>17.350000000000001</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="11">
         <f>D60</f>
         <v>1.4849242404917509</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="11">
         <f>F60</f>
         <v>1.6</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="11">
         <v>38.799999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="17">
+      <c r="B62" s="11">
         <v>43.1</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="11">
         <f>AVERAGE(B61:B62)</f>
         <v>40.950000000000003</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="11">
         <f>STDEV(B61:B62)</f>
         <v>3.0405591591021572</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="11">
         <v>9</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="11">
         <f>C62+E62</f>
         <v>49.95</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="11">
         <f>D62</f>
         <v>3.0405591591021572</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="11">
         <f>F62</f>
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="11">
         <v>29.4</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="17">
+      <c r="B64" s="11">
         <v>19.8</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="11">
         <f>AVERAGE(B63:B64)</f>
         <v>24.6</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="11">
         <f>STDEV(B63:B64)</f>
         <v>6.788225099390834</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="11">
         <v>1</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="11">
         <v>1</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="11">
         <f>C64+E64</f>
         <v>25.6</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="11">
         <f>D64</f>
         <v>6.788225099390834</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="11">
         <f>F64</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="11">
         <v>61.3</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="17">
+      <c r="B66" s="11">
         <v>30.7</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="11">
         <f>AVERAGE(B65:B66)</f>
         <v>46</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="11">
         <f>STDEV(B65:B66)</f>
         <v>21.63746750430834</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="11">
         <v>11</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="11">
         <v>5.7</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="11">
         <f>C66+E66</f>
         <v>57</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H66" s="11">
         <f>D66</f>
         <v>21.63746750430834</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I66" s="11">
         <f>F66</f>
         <v>5.7</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="11">
         <v>28.4</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="17">
+      <c r="B68" s="11">
         <v>20.5</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="11">
         <f>AVERAGE(B67:B68)</f>
         <v>24.45</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="11">
         <f>STDEV(B67:B68)</f>
         <v>5.5861435713737189</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="11">
         <v>6</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="11">
         <v>3.8</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G68" s="11">
         <f>C68+E68</f>
         <v>30.45</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H68" s="11">
         <f>D68</f>
         <v>5.5861435713737189</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="11">
         <f>F68</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="11">
         <v>51.2</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="17">
+      <c r="B70" s="11">
         <v>34.799999999999997</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="11">
         <f>AVERAGE(B69:B70)</f>
         <v>43</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="11">
         <f>STDEV(B69:B70)</f>
         <v>11.596551211459399</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="11">
         <v>7.4</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="11">
         <f>C70+E70</f>
         <v>50.4</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H70" s="11">
         <f>D70</f>
         <v>11.596551211459399</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I70" s="11">
         <f>F70</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="11">
         <v>13.2</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="17">
+      <c r="B72" s="11">
         <v>18.7</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="11">
         <f>AVERAGE(B71:B72)</f>
         <v>15.95</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="11">
         <f>STDEV(B71:B72)</f>
         <v>3.8890872965260113</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="11">
         <v>5.5</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="11">
         <v>2.9</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G72" s="11">
         <f>C72+E72</f>
         <v>21.45</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H72" s="11">
         <f>D72</f>
         <v>3.8890872965260113</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I72" s="11">
         <f>F72</f>
         <v>2.9</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="11">
         <v>23.5</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="17">
+      <c r="B74" s="11">
         <v>29.3</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="11">
         <f>AVERAGE(B73:B74)</f>
         <v>26.4</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D74" s="11">
         <f>STDEV(B73:B74)</f>
         <v>4.101219330881996</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="11">
         <v>1.5</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="11">
         <v>1.2</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G74" s="11">
         <f>C74+E74</f>
         <v>27.9</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H74" s="11">
         <f>D74</f>
         <v>4.101219330881996</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I74" s="11">
         <f>F74</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B75" s="11">
         <v>12.4</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="17">
+      <c r="B76" s="11">
         <v>13.3</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="11">
         <f>AVERAGE(B75:B76)</f>
         <v>12.850000000000001</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D76" s="11">
         <f>STDEV(B75:B76)</f>
         <v>0.63639610306789296</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="11">
         <v>3.1</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="11">
         <v>2</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G76" s="11">
         <f>C76+E76</f>
         <v>15.950000000000001</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="11">
         <f>D76</f>
         <v>0.63639610306789296</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="11">
         <f>F76</f>
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B77" s="11">
         <v>76.599999999999994</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="17">
+      <c r="B78" s="11">
         <v>76.900000000000006</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="11">
         <f>AVERAGE(B77:B78)</f>
         <v>76.75</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D78" s="11">
         <f>STDEV(B77:B78)</f>
         <v>0.2121320343559723</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="11">
         <v>8.4</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="11">
         <v>3.5</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G78" s="11">
         <f>C78+E78</f>
         <v>85.15</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H78" s="11">
         <f>D78</f>
         <v>0.2121320343559723</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I78" s="11">
         <f>F78</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="11">
         <v>48.3</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="17">
+      <c r="B80" s="11">
         <v>46.8</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="11">
         <f>AVERAGE(B79:B80)</f>
         <v>47.55</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D80" s="11">
         <f>STDEV(B79:B80)</f>
         <v>1.0606601717798212</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E80" s="11">
         <v>27.6</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="11">
         <v>29.1</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G80" s="11">
         <f>C80+E80</f>
         <v>75.150000000000006</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H80" s="11">
         <f>D80</f>
         <v>1.0606601717798212</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I80" s="11">
         <f>F80</f>
         <v>29.1</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B81" s="11">
         <v>19.899999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="17">
+      <c r="B82" s="11">
         <v>20.5</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="11">
         <f>AVERAGE(B81:B82)</f>
         <v>20.2</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D82" s="11">
         <f>STDEV(B81:B82)</f>
         <v>0.42426406871192951</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E82" s="11">
         <v>14.6</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F82" s="11">
         <v>10.6</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G82" s="11">
         <f>C82+E82</f>
         <v>34.799999999999997</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H82" s="11">
         <f>D82</f>
         <v>0.42426406871192951</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I82" s="11">
         <f>F82</f>
         <v>10.6</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="17">
+      <c r="B83" s="11">
         <v>22.7</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="17">
+      <c r="B84" s="11">
         <v>32.1</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C84" s="11">
         <f>AVERAGE(B83:B84)</f>
         <v>27.4</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D84" s="11">
         <f>STDEV(B83:B84)</f>
         <v>6.6468037431535683</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E84" s="11">
         <v>0.3</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F84" s="11">
         <v>0.5</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G84" s="11">
         <f>C84+E84</f>
         <v>27.7</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H84" s="11">
         <f>D84</f>
         <v>6.6468037431535683</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I84" s="11">
         <f>F84</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B85" s="17">
+      <c r="B85" s="11">
         <v>19.5</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="17">
+      <c r="B86" s="11">
         <v>25.4</v>
       </c>
-      <c r="C86" s="17">
+      <c r="C86" s="11">
         <f>AVERAGE(B85:B86)</f>
         <v>22.45</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D86" s="11">
         <f>STDEV(B85:B86)</f>
         <v>4.1719300090006275</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E86" s="11">
         <v>3.1</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F86" s="11">
         <v>3.7</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G86" s="11">
         <f>C86+E86</f>
         <v>25.55</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H86" s="11">
         <f>D86</f>
         <v>4.1719300090006275</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I86" s="11">
         <f>F86</f>
         <v>3.7</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B87" s="11">
         <v>32.799999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="17">
+      <c r="B88" s="11">
         <v>37.6</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="11">
         <f>AVERAGE(B87:B88)</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D88" s="11">
         <f>STDEV(B87:B88)</f>
         <v>3.3941125496954312</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="11">
         <v>2.1</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F88" s="11">
         <v>2.69</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G88" s="11">
         <f>C88+E88</f>
         <v>37.300000000000004</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H88" s="11">
         <f>D88</f>
         <v>3.3941125496954312</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I88" s="11">
         <f>F88</f>
         <v>2.69</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B89" s="11">
         <v>40.1</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="17">
+      <c r="B90" s="11">
         <v>44.7</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="11">
         <f>AVERAGE(B89:B90)</f>
         <v>42.400000000000006</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D90" s="11">
         <f>STDEV(B89:B90)</f>
         <v>3.2526911934581193</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="11">
         <v>19.8</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F90" s="11">
         <v>12.03</v>
       </c>
-      <c r="G90" s="17">
+      <c r="G90" s="11">
         <f>C90+E90</f>
         <v>62.2</v>
       </c>
-      <c r="H90" s="17">
+      <c r="H90" s="11">
         <f>D90</f>
         <v>3.2526911934581193</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I90" s="11">
         <f>F90</f>
         <v>12.03</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B91" s="17">
+      <c r="B91" s="11">
         <v>15.3</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="17">
+      <c r="B92" s="11">
         <v>47</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="11">
         <f>AVERAGE(B91:B92)</f>
         <v>31.15</v>
       </c>
-      <c r="D92" s="17">
+      <c r="D92" s="11">
         <f>STDEV(B91:B92)</f>
         <v>22.415284963613566</v>
       </c>
-      <c r="E92" s="17">
+      <c r="E92" s="11">
         <v>7.4</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F92" s="11">
         <v>2.9</v>
       </c>
-      <c r="G92" s="17">
+      <c r="G92" s="11">
         <f>C92+E92</f>
         <v>38.549999999999997</v>
       </c>
-      <c r="H92" s="17">
+      <c r="H92" s="11">
         <f>D92</f>
         <v>22.415284963613566</v>
       </c>
-      <c r="I92" s="17">
+      <c r="I92" s="11">
         <f>F92</f>
         <v>2.9</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B93" s="11">
         <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="17">
+      <c r="B94" s="11">
         <v>46</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="11">
         <f>AVERAGE(B93:B94)</f>
         <v>47.5</v>
       </c>
-      <c r="D94" s="17">
+      <c r="D94" s="11">
         <f>STDEV(B93:B94)</f>
         <v>2.1213203435596424</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E94" s="11">
         <v>13.9</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94" s="11">
         <v>11.7</v>
       </c>
-      <c r="G94" s="17">
+      <c r="G94" s="11">
         <f>C94+E94</f>
         <v>61.4</v>
       </c>
-      <c r="H94" s="17">
+      <c r="H94" s="11">
         <f>D94</f>
         <v>2.1213203435596424</v>
       </c>
-      <c r="I94" s="17">
+      <c r="I94" s="11">
         <f>F94</f>
         <v>11.7</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B95" s="17">
+      <c r="B95" s="11">
         <v>30.9</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="17">
+      <c r="B96" s="11">
         <v>16.5</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C96" s="11">
         <f>AVERAGE(B95:B96)</f>
         <v>23.7</v>
       </c>
-      <c r="D96" s="17">
+      <c r="D96" s="11">
         <f>STDEV(B95:B96)</f>
         <v>10.182337649086287</v>
       </c>
-      <c r="E96" s="17">
+      <c r="E96" s="11">
         <v>1.6</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="11">
         <v>1.8</v>
       </c>
-      <c r="G96" s="17">
+      <c r="G96" s="11">
         <f>C96+E96</f>
         <v>25.3</v>
       </c>
-      <c r="H96" s="17">
+      <c r="H96" s="11">
         <f>D96</f>
         <v>10.182337649086287</v>
       </c>
-      <c r="I96" s="17">
+      <c r="I96" s="11">
         <f>F96</f>
         <v>1.8</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="17">
+      <c r="B97" s="11">
         <v>47.9</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="17">
+      <c r="B98" s="11">
         <v>40.4</v>
       </c>
-      <c r="C98" s="17">
+      <c r="C98" s="11">
         <f>AVERAGE(B97:B98)</f>
         <v>44.15</v>
       </c>
-      <c r="D98" s="17">
+      <c r="D98" s="11">
         <f>STDEV(B97:B98)</f>
         <v>5.3033008588991066</v>
       </c>
-      <c r="E98" s="17">
+      <c r="E98" s="11">
         <v>10.199999999999999</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="11">
         <v>3.5</v>
       </c>
-      <c r="G98" s="17">
+      <c r="G98" s="11">
         <f>C98+E98</f>
         <v>54.349999999999994</v>
       </c>
-      <c r="H98" s="17">
+      <c r="H98" s="11">
         <f>D98</f>
         <v>5.3033008588991066</v>
       </c>
-      <c r="I98" s="17">
+      <c r="I98" s="11">
         <f>F98</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="17">
+      <c r="B99" s="11">
         <v>14.9</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="17">
+      <c r="B100" s="11">
         <v>21.9</v>
       </c>
-      <c r="C100" s="17">
+      <c r="C100" s="11">
         <f>AVERAGE(B99:B100)</f>
         <v>18.399999999999999</v>
       </c>
-      <c r="D100" s="17">
+      <c r="D100" s="11">
         <f>STDEV(B99:B100)</f>
         <v>4.9497474683058442</v>
       </c>
-      <c r="E100" s="17">
+      <c r="E100" s="11">
         <v>7.2</v>
       </c>
-      <c r="F100" s="17">
+      <c r="F100" s="11">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G100" s="17">
+      <c r="G100" s="11">
         <f>C100+E100</f>
         <v>25.599999999999998</v>
       </c>
-      <c r="H100" s="17">
+      <c r="H100" s="11">
         <f>D100</f>
         <v>4.9497474683058442</v>
       </c>
-      <c r="I100" s="17">
+      <c r="I100" s="11">
         <f>F100</f>
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B101" s="17">
+      <c r="B101" s="11">
         <v>27.3</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="17">
+      <c r="B102" s="11">
         <v>25.3</v>
       </c>
-      <c r="C102" s="17">
+      <c r="C102" s="11">
         <f>AVERAGE(B101:B102)</f>
         <v>26.3</v>
       </c>
-      <c r="D102" s="17">
+      <c r="D102" s="11">
         <f>STDEV(B101:B102)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="E102" s="17">
+      <c r="E102" s="11">
         <v>34.799999999999997</v>
       </c>
-      <c r="F102" s="17">
+      <c r="F102" s="11">
         <v>17.2</v>
       </c>
-      <c r="G102" s="17">
+      <c r="G102" s="11">
         <f>C102+E102</f>
         <v>61.099999999999994</v>
       </c>
-      <c r="H102" s="17">
+      <c r="H102" s="11">
         <f>D102</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="I102" s="17">
+      <c r="I102" s="11">
         <f>F102</f>
         <v>17.2</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B103" s="17">
+      <c r="B103" s="11">
         <v>24.7</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="17">
+      <c r="B104" s="11">
         <v>18.399999999999999</v>
       </c>
-      <c r="C104" s="17">
+      <c r="C104" s="11">
         <f>AVERAGE(B103:B104)</f>
         <v>21.549999999999997</v>
       </c>
-      <c r="D104" s="17">
+      <c r="D104" s="11">
         <f>STDEV(B103:B104)</f>
         <v>4.4547727214752655</v>
       </c>
-      <c r="E104" s="17">
+      <c r="E104" s="11">
         <v>27.2</v>
       </c>
-      <c r="F104" s="17">
+      <c r="F104" s="11">
         <v>15.7</v>
       </c>
-      <c r="G104" s="17">
+      <c r="G104" s="11">
         <f>C104+E104</f>
         <v>48.75</v>
       </c>
-      <c r="H104" s="17">
+      <c r="H104" s="11">
         <f>D104</f>
         <v>4.4547727214752655</v>
       </c>
-      <c r="I104" s="17">
+      <c r="I104" s="11">
         <f>F104</f>
         <v>15.7</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B105" s="17">
+      <c r="B105" s="11">
         <v>36.200000000000003</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="17">
+      <c r="B106" s="11">
         <v>19.5</v>
       </c>
-      <c r="C106" s="17">
+      <c r="C106" s="11">
         <f>AVERAGE(B105:B106)</f>
         <v>27.85</v>
       </c>
-      <c r="D106" s="17">
+      <c r="D106" s="11">
         <f>STDEV(B105:B106)</f>
         <v>11.808683245815351</v>
       </c>
-      <c r="E106" s="17">
+      <c r="E106" s="11">
         <v>2.9</v>
       </c>
-      <c r="F106" s="17">
+      <c r="F106" s="11">
         <v>2.8</v>
       </c>
-      <c r="G106" s="17">
+      <c r="G106" s="11">
         <f>C106+E106</f>
         <v>30.75</v>
       </c>
-      <c r="H106" s="17">
+      <c r="H106" s="11">
         <f>D106</f>
         <v>11.808683245815351</v>
       </c>
-      <c r="I106" s="17">
+      <c r="I106" s="11">
         <f>F106</f>
         <v>2.8</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B107" s="17">
+      <c r="B107" s="11">
         <v>42.2</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="17">
+      <c r="B108" s="11">
         <v>16.899999999999999</v>
       </c>
-      <c r="C108" s="17">
+      <c r="C108" s="11">
         <f>AVERAGE(B107:B108)</f>
         <v>29.55</v>
       </c>
-      <c r="D108" s="17">
+      <c r="D108" s="11">
         <f>STDEV(B107:B108)</f>
         <v>17.88980156401966</v>
       </c>
-      <c r="E108" s="17">
+      <c r="E108" s="11">
         <v>12.1</v>
       </c>
-      <c r="F108" s="17">
+      <c r="F108" s="11">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G108" s="17">
+      <c r="G108" s="11">
         <f>C108+E108</f>
         <v>41.65</v>
       </c>
-      <c r="H108" s="17">
+      <c r="H108" s="11">
         <f>D108</f>
         <v>17.88980156401966</v>
       </c>
-      <c r="I108" s="17">
+      <c r="I108" s="11">
         <f>F108</f>
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B109" s="17">
+      <c r="B109" s="11">
         <v>29.8</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="17">
+      <c r="B110" s="11">
         <v>88.4</v>
       </c>
-      <c r="C110" s="17">
+      <c r="C110" s="11">
         <f>AVERAGE(B109:B110)</f>
         <v>59.1</v>
       </c>
-      <c r="D110" s="17">
+      <c r="D110" s="11">
         <f>STDEV(B109:B110)</f>
         <v>41.43645737753171</v>
       </c>
-      <c r="E110" s="17">
+      <c r="E110" s="11">
         <v>25.1</v>
       </c>
-      <c r="F110" s="17">
+      <c r="F110" s="11">
         <v>11.7</v>
       </c>
-      <c r="G110" s="17">
+      <c r="G110" s="11">
         <f>C110+E110</f>
         <v>84.2</v>
       </c>
-      <c r="H110" s="17">
+      <c r="H110" s="11">
         <f>D110</f>
         <v>41.43645737753171</v>
       </c>
-      <c r="I110" s="17">
+      <c r="I110" s="11">
         <f>F110</f>
         <v>11.7</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B111" s="17">
+      <c r="B111" s="11">
         <v>54.7</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="17">
+      <c r="B112" s="11">
         <v>54.4</v>
       </c>
-      <c r="C112" s="17">
+      <c r="C112" s="11">
         <f>AVERAGE(B111:B112)</f>
         <v>54.55</v>
       </c>
-      <c r="D112" s="17">
+      <c r="D112" s="11">
         <f>STDEV(B111:B112)</f>
         <v>0.21213203435596725</v>
       </c>
-      <c r="E112" s="17">
+      <c r="E112" s="11">
         <v>10.4</v>
       </c>
-      <c r="F112" s="17">
+      <c r="F112" s="11">
         <v>4.5</v>
       </c>
-      <c r="G112" s="17">
+      <c r="G112" s="11">
         <f>C112+E112</f>
         <v>64.95</v>
       </c>
-      <c r="H112" s="17">
+      <c r="H112" s="11">
         <f>D112</f>
         <v>0.21213203435596725</v>
       </c>
-      <c r="I112" s="17">
+      <c r="I112" s="11">
         <f>F112</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="17">
+      <c r="B113" s="11">
         <v>39.799999999999997</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="17">
+      <c r="B114" s="11">
         <v>32.799999999999997</v>
       </c>
-      <c r="C114" s="17">
+      <c r="C114" s="11">
         <f>AVERAGE(B113:B114)</f>
         <v>36.299999999999997</v>
       </c>
-      <c r="D114" s="17">
+      <c r="D114" s="11">
         <f>STDEV(B113:B114)</f>
         <v>4.9497474683058327</v>
       </c>
-      <c r="E114" s="17">
+      <c r="E114" s="11">
         <v>14.6</v>
       </c>
-      <c r="F114" s="17">
+      <c r="F114" s="11">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G114" s="17">
+      <c r="G114" s="11">
         <f>C114+E114</f>
         <v>50.9</v>
       </c>
-      <c r="H114" s="17">
+      <c r="H114" s="11">
         <f>D114</f>
         <v>4.9497474683058327</v>
       </c>
-      <c r="I114" s="17">
+      <c r="I114" s="11">
         <f>F114</f>
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B115" s="17">
+      <c r="B115" s="11">
         <v>14.3</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="17">
+      <c r="B116" s="11">
         <v>14.6</v>
       </c>
-      <c r="C116" s="17">
+      <c r="C116" s="11">
         <f>AVERAGE(B115:B116)</f>
         <v>14.45</v>
       </c>
-      <c r="D116" s="17">
+      <c r="D116" s="11">
         <f>STDEV(B115:B116)</f>
         <v>0.21213203435596351</v>
       </c>
-      <c r="E116" s="17">
+      <c r="E116" s="11">
         <v>1.2</v>
       </c>
-      <c r="F116" s="17">
+      <c r="F116" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G116" s="17">
+      <c r="G116" s="11">
         <f>C116+E116</f>
         <v>15.649999999999999</v>
       </c>
-      <c r="H116" s="17">
+      <c r="H116" s="11">
         <f>D116</f>
         <v>0.21213203435596351</v>
       </c>
-      <c r="I116" s="17">
+      <c r="I116" s="11">
         <f>F116</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B117" s="17">
+      <c r="B117" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="17">
+      <c r="B118" s="11">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="11">
         <f>AVERAGE(B117:B118)</f>
         <v>10.4</v>
       </c>
-      <c r="D118" s="17">
+      <c r="D118" s="11">
         <f>STDEV(B117:B118)</f>
         <v>0.84852813742385658</v>
       </c>
-      <c r="E118" s="17">
+      <c r="E118" s="11">
         <v>3.1</v>
       </c>
-      <c r="F118" s="17">
+      <c r="F118" s="11">
         <v>6.4</v>
       </c>
-      <c r="G118" s="17">
+      <c r="G118" s="11">
         <f>C118+E118</f>
         <v>13.5</v>
       </c>
-      <c r="H118" s="17">
+      <c r="H118" s="11">
         <f>D118</f>
         <v>0.84852813742385658</v>
       </c>
-      <c r="I118" s="17">
+      <c r="I118" s="11">
         <f>F118</f>
         <v>6.4</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B119" s="17">
+      <c r="B119" s="11">
         <v>10.8</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="17">
+      <c r="B120" s="11">
         <v>11</v>
       </c>
-      <c r="C120" s="17">
+      <c r="C120" s="11">
         <f>AVERAGE(B119:B120)</f>
         <v>10.9</v>
       </c>
-      <c r="D120" s="17">
+      <c r="D120" s="11">
         <f>STDEV(B119:B120)</f>
         <v>0.141421356237309</v>
       </c>
-      <c r="E120" s="17">
+      <c r="E120" s="11">
         <v>0.3</v>
       </c>
-      <c r="F120" s="17">
+      <c r="F120" s="11">
         <v>0.5</v>
       </c>
-      <c r="G120" s="17">
+      <c r="G120" s="11">
         <f>C120+E120</f>
         <v>11.200000000000001</v>
       </c>
-      <c r="H120" s="17">
+      <c r="H120" s="11">
         <f>D120</f>
         <v>0.141421356237309</v>
       </c>
-      <c r="I120" s="17">
+      <c r="I120" s="11">
         <f>F120</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="17" t="s">
+      <c r="A121" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="17">
+      <c r="B121" s="11">
         <v>96.1</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="17">
+      <c r="B122" s="11">
         <v>106.3</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C122" s="11">
         <f>AVERAGE(B121:B122)</f>
         <v>101.19999999999999</v>
       </c>
-      <c r="D122" s="17">
+      <c r="D122" s="11">
         <f>STDEV(B121:B122)</f>
         <v>7.2124891681027865</v>
       </c>
-      <c r="E122" s="17">
+      <c r="E122" s="11">
         <v>29.3</v>
       </c>
-      <c r="F122" s="17">
+      <c r="F122" s="11">
         <v>22.9</v>
       </c>
-      <c r="G122" s="17">
+      <c r="G122" s="11">
         <f>C122+E122</f>
         <v>130.5</v>
       </c>
-      <c r="H122" s="17">
+      <c r="H122" s="11">
         <f>D122</f>
         <v>7.2124891681027865</v>
       </c>
-      <c r="I122" s="17">
+      <c r="I122" s="11">
         <f>F122</f>
         <v>22.9</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B123" s="17">
+      <c r="B123" s="11">
         <v>12.8</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="17">
+      <c r="B124" s="11">
         <v>8.6</v>
       </c>
-      <c r="C124" s="17">
+      <c r="C124" s="11">
         <f>AVERAGE(B123:B124)</f>
         <v>10.7</v>
       </c>
-      <c r="D124" s="17">
+      <c r="D124" s="11">
         <f>STDEV(B123:B124)</f>
         <v>2.969848480983508</v>
       </c>
-      <c r="E124" s="17">
+      <c r="E124" s="11">
         <v>0.2</v>
       </c>
-      <c r="F124" s="17">
+      <c r="F124" s="11">
         <v>0.4</v>
       </c>
-      <c r="G124" s="17">
+      <c r="G124" s="11">
         <f>C124+E124</f>
         <v>10.899999999999999</v>
       </c>
-      <c r="H124" s="17">
+      <c r="H124" s="11">
         <f>D124</f>
         <v>2.969848480983508</v>
       </c>
-      <c r="I124" s="17">
+      <c r="I124" s="11">
         <f>F124</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B125" s="17">
+      <c r="B125" s="11">
         <v>43.4</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="17">
+      <c r="B126" s="11">
         <v>46.3</v>
       </c>
-      <c r="C126" s="17">
+      <c r="C126" s="11">
         <f>AVERAGE(B125:B126)</f>
         <v>44.849999999999994</v>
       </c>
-      <c r="D126" s="17">
+      <c r="D126" s="11">
         <f>STDEV(B125:B126)</f>
         <v>2.0506096654409869</v>
       </c>
-      <c r="E126" s="17">
+      <c r="E126" s="11">
         <v>6.3</v>
       </c>
-      <c r="F126" s="17">
+      <c r="F126" s="11">
         <v>7.7</v>
       </c>
-      <c r="G126" s="17">
+      <c r="G126" s="11">
         <f>C126+E126</f>
         <v>51.149999999999991</v>
       </c>
-      <c r="H126" s="17">
+      <c r="H126" s="11">
         <f>D126</f>
         <v>2.0506096654409869</v>
       </c>
-      <c r="I126" s="17">
+      <c r="I126" s="11">
         <f>F126</f>
         <v>7.7</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="17" t="s">
+      <c r="A127" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="17">
+      <c r="B127" s="11">
         <v>6.5</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="17">
+      <c r="B128" s="11">
         <v>5.4</v>
       </c>
-      <c r="C128" s="17">
+      <c r="C128" s="11">
         <f>AVERAGE(B127:B128)</f>
         <v>5.95</v>
       </c>
-      <c r="D128" s="17">
+      <c r="D128" s="11">
         <f>STDEV(B127:B128)</f>
         <v>0.77781745930520207</v>
       </c>
-      <c r="E128" s="17">
+      <c r="E128" s="11">
         <v>3.4</v>
       </c>
-      <c r="F128" s="17">
+      <c r="F128" s="11">
         <v>2.6</v>
       </c>
-      <c r="G128" s="17">
+      <c r="G128" s="11">
         <f>C128+E128</f>
         <v>9.35</v>
       </c>
-      <c r="H128" s="17">
+      <c r="H128" s="11">
         <f>D128</f>
         <v>0.77781745930520207</v>
       </c>
-      <c r="I128" s="17">
+      <c r="I128" s="11">
         <f>F128</f>
         <v>2.6</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="17" t="s">
+      <c r="A129" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B129" s="17">
+      <c r="B129" s="11">
         <v>114.1</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="17">
+      <c r="B130" s="11">
         <v>58.3</v>
       </c>
-      <c r="C130" s="17">
+      <c r="C130" s="11">
         <f>AVERAGE(B129:B130)</f>
         <v>86.199999999999989</v>
       </c>
-      <c r="D130" s="17">
+      <c r="D130" s="11">
         <f>STDEV(B129:B130)</f>
         <v>39.456558390209416</v>
       </c>
-      <c r="E130" s="17">
+      <c r="E130" s="11">
         <v>7.25</v>
       </c>
-      <c r="F130" s="17">
+      <c r="F130" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G130" s="17">
+      <c r="G130" s="11">
         <f>C130+E130</f>
         <v>93.449999999999989</v>
       </c>
-      <c r="H130" s="17">
+      <c r="H130" s="11">
         <f>D130</f>
         <v>39.456558390209416</v>
       </c>
-      <c r="I130" s="17">
+      <c r="I130" s="11">
         <f>F130</f>
         <v>5.0999999999999996</v>
       </c>
@@ -7426,13 +7476,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AB415F-CEB6-45D1-A5AD-2D1BE69E59BF}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" style="5"/>
     <col min="4" max="4" width="6.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="5"/>
@@ -7441,33 +7491,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>134</v>
       </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -7475,7 +7532,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="5">
@@ -7514,7 +7571,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B5" s="5">
@@ -7553,7 +7610,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="5">
@@ -7592,7 +7649,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="18" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="5">
@@ -7631,7 +7688,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="5">
@@ -7670,7 +7727,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="5">
@@ -7709,7 +7766,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="18" t="s">
         <v>83</v>
       </c>
       <c r="B15" s="5">
@@ -7748,7 +7805,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B17" s="5">
@@ -7787,7 +7844,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B19" s="5">
@@ -7826,7 +7883,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B21" s="5">
@@ -7865,7 +7922,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="18" t="s">
         <v>138</v>
       </c>
       <c r="B23" s="5">
@@ -7904,7 +7961,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="18" t="s">
         <v>139</v>
       </c>
       <c r="B25" s="5">
@@ -7943,7 +8000,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="18" t="s">
         <v>140</v>
       </c>
       <c r="B27" s="5">
@@ -7982,7 +8039,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="18" t="s">
         <v>141</v>
       </c>
       <c r="B29" s="5">
@@ -8021,7 +8078,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="18" t="s">
         <v>142</v>
       </c>
       <c r="B31" s="5">
@@ -8060,7 +8117,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="18" t="s">
         <v>143</v>
       </c>
       <c r="B33" s="5">
@@ -8099,7 +8156,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="18" t="s">
         <v>144</v>
       </c>
       <c r="B35" s="5">
@@ -8138,7 +8195,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B37" s="5">
@@ -8177,7 +8234,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="18" t="s">
         <v>146</v>
       </c>
       <c r="B39" s="5">
@@ -8216,7 +8273,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B41" s="5">
@@ -8261,10 +8318,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8432CCA-B94D-45DF-A223-7F1BDAE5780D}">
-  <dimension ref="A1:AB128"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8297,75 +8354,76 @@
     <col min="29" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10" t="s">
+      <c r="T1" s="20"/>
+      <c r="U1" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="9" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10" t="s">
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="AB1" s="11"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="18"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>60.45</v>
@@ -8443,7 +8501,7 @@
       </c>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8471,7 +8529,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3">
         <v>72.900000000000006</v>
@@ -8519,7 +8577,7 @@
       </c>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -8547,7 +8605,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>82.54</v>
@@ -8595,7 +8653,7 @@
       </c>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -8623,7 +8681,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3">
         <v>54</v>
@@ -8671,7 +8729,7 @@
       </c>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -8699,7 +8757,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>64</v>
@@ -8747,7 +8805,7 @@
       </c>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8775,7 +8833,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3">
         <v>56.5</v>
@@ -8823,7 +8881,7 @@
       </c>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -8851,7 +8909,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3">
         <v>44</v>
@@ -8899,7 +8957,7 @@
       </c>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8927,7 +8985,7 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3">
         <v>131.5</v>
